--- a/2.Scripts_for_Paper/PlotFunctionsPaper.xlsx
+++ b/2.Scripts_for_Paper/PlotFunctionsPaper.xlsx
@@ -42948,7 +42948,7 @@
   <dimension ref="A1:E300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42967,7 +42967,7 @@
         <v>34</v>
       </c>
       <c r="E1">
-        <v>0.83243198758871606</v>
+        <v>0.82905456131879263</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -42984,7 +42984,7 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>0.72679701258801654</v>
+        <v>0.6605267395814407</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -43001,7 +43001,7 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>0.79341841141260239</v>
+        <v>0.72091392303647461</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -43018,7 +43018,7 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>0.78914666240659725</v>
+        <v>0.72430880835429989</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -43035,7 +43035,7 @@
         <v>38</v>
       </c>
       <c r="E5">
-        <v>0.78855797509636338</v>
+        <v>0.67350785753461107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -43052,7 +43052,7 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>0.73433729433040373</v>
+        <v>0.62756259848487128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -43069,7 +43069,7 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <v>0.66961761035570966</v>
+        <v>0.60394116675859633</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -43086,7 +43086,7 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>0.81320235964592258</v>
+        <v>0.76366326953069863</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -43103,7 +43103,7 @@
         <v>42</v>
       </c>
       <c r="E9">
-        <v>0.7899556327152728</v>
+        <v>0.68894399720329613</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -43120,7 +43120,7 @@
         <v>43</v>
       </c>
       <c r="E10">
-        <v>0.790965775867427</v>
+        <v>0.70473602897270848</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -43137,7 +43137,7 @@
         <v>44</v>
       </c>
       <c r="E11">
-        <v>0.79005196726641214</v>
+        <v>0.66454646477842128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -43154,7 +43154,7 @@
         <v>45</v>
       </c>
       <c r="E12">
-        <v>0.72745576725206096</v>
+        <v>0.54687997439899527</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -43171,7 +43171,7 @@
         <v>46</v>
       </c>
       <c r="E13">
-        <v>0.76695306514446826</v>
+        <v>0.73262858955664134</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -43188,7 +43188,7 @@
         <v>47</v>
       </c>
       <c r="E14">
-        <v>3.665690743495304E-3</v>
+        <v>0.73427399337550081</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -43205,7 +43205,7 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>0.79183498129386232</v>
+        <v>0.74677602650326691</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -43222,7 +43222,7 @@
         <v>49</v>
       </c>
       <c r="E16">
-        <v>3.3171198399079577E-3</v>
+        <v>0.66272410488023736</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -43239,7 +43239,7 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <v>0.82854713917065936</v>
+        <v>0.81066380112860725</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -43256,7 +43256,7 @@
         <v>51</v>
       </c>
       <c r="E18">
-        <v>0.7936162394430073</v>
+        <v>0.73287455052302486</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -43273,7 +43273,7 @@
         <v>52</v>
       </c>
       <c r="E19">
-        <v>3.6656890832134485E-3</v>
+        <v>0.73294991927785968</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -43290,7 +43290,7 @@
         <v>53</v>
       </c>
       <c r="E20">
-        <v>0.73438994857875906</v>
+        <v>0.69648384254317175</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -43307,7 +43307,7 @@
         <v>54</v>
       </c>
       <c r="E21">
-        <v>0.7468119771483871</v>
+        <v>0.6616724741630674</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -43324,7 +43324,7 @@
         <v>55</v>
       </c>
       <c r="E22">
-        <v>0.8018076057812733</v>
+        <v>0.75534607010319343</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -43341,7 +43341,7 @@
         <v>56</v>
       </c>
       <c r="E23">
-        <v>0.79570131458590065</v>
+        <v>0.80308944416239536</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -43358,7 +43358,7 @@
         <v>57</v>
       </c>
       <c r="E24">
-        <v>0.80058035413211515</v>
+        <v>0.69481506047277519</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -43375,7 +43375,7 @@
         <v>58</v>
       </c>
       <c r="E25">
-        <v>0.79210134064200188</v>
+        <v>0.69427574175237849</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -43392,7 +43392,7 @@
         <v>34</v>
       </c>
       <c r="E26">
-        <v>0.83303467579834622</v>
+        <v>0.83275038000148172</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -43409,7 +43409,7 @@
         <v>35</v>
       </c>
       <c r="E27">
-        <v>0.74868128507019316</v>
+        <v>0.68186200258660401</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -43426,7 +43426,7 @@
         <v>36</v>
       </c>
       <c r="E28">
-        <v>0.81543483613845136</v>
+        <v>0.72702433122028254</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -43443,7 +43443,7 @@
         <v>37</v>
       </c>
       <c r="E29">
-        <v>0.82100561957815876</v>
+        <v>0.72607191212989775</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -43460,7 +43460,7 @@
         <v>38</v>
       </c>
       <c r="E30">
-        <v>0.82782800700711068</v>
+        <v>0.72996140316416724</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -43477,7 +43477,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>0.83033780958272119</v>
+        <v>0.7151693486665418</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -43494,7 +43494,7 @@
         <v>40</v>
       </c>
       <c r="E32">
-        <v>0.69052150681428071</v>
+        <v>0.6089370843741142</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -43511,7 +43511,7 @@
         <v>41</v>
       </c>
       <c r="E33">
-        <v>0.8304584052908397</v>
+        <v>0.7856577702062183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -43528,7 +43528,7 @@
         <v>42</v>
       </c>
       <c r="E34">
-        <v>0.82808566145775842</v>
+        <v>0.73433775347079955</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -43545,7 +43545,7 @@
         <v>43</v>
       </c>
       <c r="E35">
-        <v>0.83013834700534106</v>
+        <v>0.73388270653528354</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -43562,7 +43562,7 @@
         <v>44</v>
       </c>
       <c r="E36">
-        <v>0.82968160587296524</v>
+        <v>0.72957496670635813</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -43579,7 +43579,7 @@
         <v>45</v>
       </c>
       <c r="E37">
-        <v>0.72745576725206096</v>
+        <v>0.65342651582351785</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -43596,7 +43596,7 @@
         <v>46</v>
       </c>
       <c r="E38">
-        <v>0.76695306514446826</v>
+        <v>0.74718148426068554</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -43613,7 +43613,7 @@
         <v>47</v>
       </c>
       <c r="E39">
-        <v>0.82218435409633905</v>
+        <v>0.73904449167078623</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -43630,7 +43630,7 @@
         <v>48</v>
       </c>
       <c r="E40">
-        <v>0.82886486992607744</v>
+        <v>0.80279686885171131</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -43647,7 +43647,7 @@
         <v>49</v>
       </c>
       <c r="E41">
-        <v>0.75189566967659915</v>
+        <v>0.68611610171528681</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -43664,7 +43664,7 @@
         <v>50</v>
       </c>
       <c r="E42">
-        <v>0.83184063455234114</v>
+        <v>0.81884093413602665</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -43681,7 +43681,7 @@
         <v>51</v>
       </c>
       <c r="E43">
-        <v>0.82723785351394397</v>
+        <v>0.73483922576505445</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -43698,7 +43698,7 @@
         <v>52</v>
       </c>
       <c r="E44">
-        <v>0.829587442348662</v>
+        <v>0.75289889847887714</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -43715,7 +43715,7 @@
         <v>53</v>
       </c>
       <c r="E45">
-        <v>0.83054408793078804</v>
+        <v>0.72776880403320032</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -43732,7 +43732,7 @@
         <v>54</v>
       </c>
       <c r="E46">
-        <v>0.7468119771483871</v>
+        <v>0.72839260951194618</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -43749,7 +43749,7 @@
         <v>55</v>
       </c>
       <c r="E47">
-        <v>0.82383438963548028</v>
+        <v>0.80961746663782108</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -43766,7 +43766,7 @@
         <v>56</v>
       </c>
       <c r="E48">
-        <v>0.83051998260474924</v>
+        <v>0.80100585593447626</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -43783,7 +43783,7 @@
         <v>57</v>
       </c>
       <c r="E49">
-        <v>0.82938664100309289</v>
+        <v>0.73294706635535367</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -43800,7 +43800,7 @@
         <v>58</v>
       </c>
       <c r="E50">
-        <v>0.82021841394869244</v>
+        <v>0.72537778533932895</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -43817,7 +43817,7 @@
         <v>34</v>
       </c>
       <c r="E51">
-        <v>0.58802818721256034</v>
+        <v>0.58775099893939853</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -43834,7 +43834,7 @@
         <v>35</v>
       </c>
       <c r="E52">
-        <v>0.52848090710837159</v>
+        <v>0.4982024838871395</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -43851,7 +43851,7 @@
         <v>36</v>
       </c>
       <c r="E53">
-        <v>0.57700342168521024</v>
+        <v>0.5287489073298246</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -43868,7 +43868,7 @@
         <v>37</v>
       </c>
       <c r="E54">
-        <v>0.75354960788051628</v>
+        <v>0.55441473362306937</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -43885,7 +43885,7 @@
         <v>38</v>
       </c>
       <c r="E55">
-        <v>0.79208283115643974</v>
+        <v>0.68005949967177393</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -43902,7 +43902,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>0.79795369000571092</v>
+        <v>0.71743055722280025</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -43919,7 +43919,7 @@
         <v>40</v>
       </c>
       <c r="E57">
-        <v>0.58014431101914776</v>
+        <v>0.44508141127018719</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -43936,7 +43936,7 @@
         <v>41</v>
       </c>
       <c r="E58">
-        <v>0.58754932730958864</v>
+        <v>0.5641216567342352</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -43953,7 +43953,7 @@
         <v>42</v>
       </c>
       <c r="E59">
-        <v>0.7866815079403523</v>
+        <v>0.54694194838270949</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -43970,7 +43970,7 @@
         <v>43</v>
       </c>
       <c r="E60">
-        <v>0.76597586391893846</v>
+        <v>0.62762203794696558</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -43987,7 +43987,7 @@
         <v>44</v>
       </c>
       <c r="E61">
-        <v>0.78873727353988821</v>
+        <v>0.64821430362613397</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -44004,7 +44004,7 @@
         <v>45</v>
       </c>
       <c r="E62">
-        <v>0.80077520819684</v>
+        <v>0.79485156355052777</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -44038,7 +44038,7 @@
         <v>47</v>
       </c>
       <c r="E64">
-        <v>0.67334173352129389</v>
+        <v>0.541322093087926</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -44055,7 +44055,7 @@
         <v>48</v>
       </c>
       <c r="E65">
-        <v>0.58508108465370168</v>
+        <v>0.56444410766134445</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -44072,7 +44072,7 @@
         <v>49</v>
       </c>
       <c r="E66">
-        <v>0.53220775729377978</v>
+        <v>0.49675608676976285</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -44089,7 +44089,7 @@
         <v>50</v>
       </c>
       <c r="E67">
-        <v>0.58718162438988786</v>
+        <v>0.58115442883515467</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -44106,7 +44106,7 @@
         <v>51</v>
       </c>
       <c r="E68">
-        <v>0.58393260248043111</v>
+        <v>0.53949880907229797</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -44123,7 +44123,7 @@
         <v>52</v>
       </c>
       <c r="E69">
-        <v>0.58559113577552613</v>
+        <v>0.54802270128670105</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -44140,7 +44140,7 @@
         <v>53</v>
       </c>
       <c r="E70">
-        <v>0.79956932688794347</v>
+        <v>0.71565546886739628</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -44157,7 +44157,7 @@
         <v>54</v>
       </c>
       <c r="E71">
-        <v>0.78727871825236662</v>
+        <v>0.64328101357224143</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -44191,7 +44191,7 @@
         <v>56</v>
       </c>
       <c r="E73">
-        <v>0.78335725622134322</v>
+        <v>0.56397728244051271</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -44208,7 +44208,7 @@
         <v>57</v>
       </c>
       <c r="E74">
-        <v>0.58714891173736339</v>
+        <v>0.59851510602035041</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -44225,7 +44225,7 @@
         <v>58</v>
       </c>
       <c r="E75">
-        <v>0.72772974034816695</v>
+        <v>0.58895949527264868</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -44242,7 +44242,7 @@
         <v>34</v>
       </c>
       <c r="E76">
-        <v>0.14280385506938048</v>
+        <v>0.1426381828018139</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -44259,7 +44259,7 @@
         <v>35</v>
       </c>
       <c r="E77">
-        <v>0.50085359909067284</v>
+        <v>0.11895076823416428</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -44276,7 +44276,7 @@
         <v>36</v>
       </c>
       <c r="E78">
-        <v>0.13997102305475997</v>
+        <v>0.14625937849829848</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -44293,7 +44293,7 @@
         <v>37</v>
       </c>
       <c r="E79">
-        <v>0.5709246916972317</v>
+        <v>0.4519688888179591</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -44310,7 +44310,7 @@
         <v>38</v>
       </c>
       <c r="E80">
-        <v>0.59453109553397987</v>
+        <v>0.54705227037077864</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -44327,7 +44327,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>0.59963010589427845</v>
+        <v>0.5996259043551827</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -44344,7 +44344,7 @@
         <v>40</v>
       </c>
       <c r="E82">
-        <v>0.440556406512361</v>
+        <v>0.13356855706849324</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -44361,7 +44361,7 @@
         <v>41</v>
       </c>
       <c r="E83">
-        <v>0.14268978046391617</v>
+        <v>0.13521110087459781</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -44378,7 +44378,7 @@
         <v>42</v>
       </c>
       <c r="E84">
-        <v>0.59019510826537147</v>
+        <v>0.23011026445184662</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -44395,7 +44395,7 @@
         <v>43</v>
       </c>
       <c r="E85">
-        <v>0.57267381812028784</v>
+        <v>0.55153995591741334</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -44412,7 +44412,7 @@
         <v>44</v>
       </c>
       <c r="E86">
-        <v>0.59188251703817629</v>
+        <v>0.55590568353022074</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -44429,7 +44429,7 @@
         <v>45</v>
       </c>
       <c r="E87">
-        <v>0.60230790020399683</v>
+        <v>0.59589315044710667</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -44446,7 +44446,7 @@
         <v>46</v>
       </c>
       <c r="E88">
-        <v>0.29375231720500267</v>
+        <v>0.1413379628357144</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -44463,7 +44463,7 @@
         <v>47</v>
       </c>
       <c r="E89">
-        <v>0.51607680148777291</v>
+        <v>0.13537860200139534</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -44480,7 +44480,7 @@
         <v>48</v>
       </c>
       <c r="E90">
-        <v>0.14209011613997638</v>
+        <v>0.13225708234993427</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -44497,7 +44497,7 @@
         <v>49</v>
       </c>
       <c r="E91">
-        <v>0.12848326465628068</v>
+        <v>0.11892067167760094</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -44514,7 +44514,7 @@
         <v>50</v>
       </c>
       <c r="E92">
-        <v>0.14259460538820004</v>
+        <v>0.14061401482579086</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -44531,7 +44531,7 @@
         <v>51</v>
       </c>
       <c r="E93">
-        <v>0.54986700804827615</v>
+        <v>0.13559577350217067</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -44548,7 +44548,7 @@
         <v>52</v>
       </c>
       <c r="E94">
-        <v>0.14221498523020987</v>
+        <v>0.13222817969399667</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -44565,7 +44565,7 @@
         <v>53</v>
       </c>
       <c r="E95">
-        <v>0.60123226871807833</v>
+        <v>0.5968703152161513</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -44582,7 +44582,7 @@
         <v>54</v>
       </c>
       <c r="E96">
-        <v>0.59108229678224611</v>
+        <v>0.54410374027188768</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -44599,7 +44599,7 @@
         <v>55</v>
       </c>
       <c r="E97">
-        <v>0.54224416233905037</v>
+        <v>0.13728455714562945</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -44616,7 +44616,7 @@
         <v>56</v>
       </c>
       <c r="E98">
-        <v>0.58904845187550758</v>
+        <v>0.13220353288985373</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -44633,7 +44633,7 @@
         <v>57</v>
       </c>
       <c r="E99">
-        <v>0.14258127499408063</v>
+        <v>0.42544979142972417</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -44650,7 +44650,7 @@
         <v>58</v>
       </c>
       <c r="E100">
-        <v>0.55060610194368265</v>
+        <v>0.46245621404023501</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -44667,7 +44667,7 @@
         <v>34</v>
       </c>
       <c r="E101">
-        <v>5.2610792623736871E-2</v>
+        <v>5.2424787081527598E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -44684,7 +44684,7 @@
         <v>35</v>
       </c>
       <c r="E102">
-        <v>0.48910081561290908</v>
+        <v>5.9650603802217837E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -44701,7 +44701,7 @@
         <v>36</v>
       </c>
       <c r="E103">
-        <v>0.53911782161547928</v>
+        <v>0.34438436347661344</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -44718,7 +44718,7 @@
         <v>37</v>
       </c>
       <c r="E104">
-        <v>5.179718346539177E-2</v>
+        <v>0.57920801269746303</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -44735,7 +44735,7 @@
         <v>38</v>
       </c>
       <c r="E105">
-        <v>0.57983673854913942</v>
+        <v>0.53185428833694526</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -44752,7 +44752,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>0.58477856966771224</v>
+        <v>0.56660638388131357</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -44769,7 +44769,7 @@
         <v>40</v>
       </c>
       <c r="E107">
-        <v>0.4261729333305731</v>
+        <v>0.23538801853142524</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -44786,7 +44786,7 @@
         <v>41</v>
       </c>
       <c r="E108">
-        <v>5.2569622066940748E-2</v>
+        <v>4.9433494951655409E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -44803,7 +44803,7 @@
         <v>42</v>
       </c>
       <c r="E109">
-        <v>0.57570502495266829</v>
+        <v>0.50647725195526172</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -44820,7 +44820,7 @@
         <v>43</v>
       </c>
       <c r="E110">
-        <v>0.55853399306308493</v>
+        <v>0.49802252459076457</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -44837,7 +44837,7 @@
         <v>44</v>
       </c>
       <c r="E111">
-        <v>0.57734076353884101</v>
+        <v>0.56041031615430836</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -44854,7 +44854,7 @@
         <v>45</v>
       </c>
       <c r="E112">
-        <v>0.58734459361121782</v>
+        <v>0.50986536952963535</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -44871,7 +44871,7 @@
         <v>46</v>
       </c>
       <c r="E113">
-        <v>0.27625496094060387</v>
+        <v>0.19186685600287645</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -44888,7 +44888,7 @@
         <v>47</v>
       </c>
       <c r="E114">
-        <v>0.50688082393952327</v>
+        <v>0.18969728265127653</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -44905,7 +44905,7 @@
         <v>48</v>
       </c>
       <c r="E115">
-        <v>0.5393421270873574</v>
+        <v>0.38223749281110064</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -44922,7 +44922,7 @@
         <v>49</v>
       </c>
       <c r="E116">
-        <v>4.7042853372739592E-2</v>
+        <v>7.1274479860199136E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -44939,7 +44939,7 @@
         <v>50</v>
       </c>
       <c r="E117">
-        <v>5.253228886755619E-2</v>
+        <v>5.129491874735366E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -44956,7 +44956,7 @@
         <v>51</v>
       </c>
       <c r="E118">
-        <v>0.53610525157427324</v>
+        <v>0.19050780776585152</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -44973,7 +44973,7 @@
         <v>52</v>
       </c>
       <c r="E119">
-        <v>0.28699883717272767</v>
+        <v>8.0030989165445529E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -44990,7 +44990,7 @@
         <v>53</v>
       </c>
       <c r="E120">
-        <v>0.58632824684919016</v>
+        <v>0.58234653908597989</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -45007,7 +45007,7 @@
         <v>54</v>
       </c>
       <c r="E121">
-        <v>0.57660686394697036</v>
+        <v>0.56697016860629035</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -45024,7 +45024,7 @@
         <v>55</v>
       </c>
       <c r="E122">
-        <v>0.53003142095326194</v>
+        <v>0.4344089574578554</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -45041,7 +45041,7 @@
         <v>56</v>
       </c>
       <c r="E123">
-        <v>0.57480029783634756</v>
+        <v>0.47001552522919215</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -45058,7 +45058,7 @@
         <v>57</v>
       </c>
       <c r="E124">
-        <v>0.54718776786279788</v>
+        <v>0.51034300735281179</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -45075,7 +45075,7 @@
         <v>58</v>
       </c>
       <c r="E125">
-        <v>0.53777090730852384</v>
+        <v>0.45888222622030106</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -45092,7 +45092,7 @@
         <v>34</v>
       </c>
       <c r="E126">
-        <v>5.2609584553610873E-2</v>
+        <v>5.2039522852046133E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -45109,7 +45109,7 @@
         <v>35</v>
       </c>
       <c r="E127">
-        <v>0.50746327996996421</v>
+        <v>0.28391554578604061</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -45126,7 +45126,7 @@
         <v>36</v>
       </c>
       <c r="E128">
-        <v>0.54914419243083501</v>
+        <v>0.52279340378577321</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -45143,7 +45143,7 @@
         <v>37</v>
       </c>
       <c r="E129">
-        <v>0.527994072722758</v>
+        <v>0.50358659442983478</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -45160,7 +45160,7 @@
         <v>38</v>
       </c>
       <c r="E130">
-        <v>0.55941417390274295</v>
+        <v>0.50975059866601713</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -45177,7 +45177,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>0.57367299770328906</v>
+        <v>0.5597994515961594</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -45194,7 +45194,7 @@
         <v>40</v>
       </c>
       <c r="E132">
-        <v>0.45829160344959974</v>
+        <v>0.53015991993391109</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -45211,7 +45211,7 @@
         <v>41</v>
       </c>
       <c r="E133">
-        <v>5.2569311360899561E-2</v>
+        <v>6.4644249633946507E-2</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -45228,7 +45228,7 @@
         <v>42</v>
       </c>
       <c r="E134">
-        <v>0.55172381386556268</v>
+        <v>0.56270276330145297</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -45245,7 +45245,7 @@
         <v>43</v>
       </c>
       <c r="E135">
-        <v>0.52702102461658329</v>
+        <v>0.51732364604110559</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -45262,7 +45262,7 @@
         <v>44</v>
       </c>
       <c r="E136">
-        <v>0.55497520234247</v>
+        <v>0.58502956008161044</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -45279,7 +45279,7 @@
         <v>45</v>
       </c>
       <c r="E137">
-        <v>0.58270430050846445</v>
+        <v>0.47398180716157856</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -45296,7 +45296,7 @@
         <v>46</v>
       </c>
       <c r="E138">
-        <v>0.21946982229144837</v>
+        <v>0.33746359009457405</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -45313,7 +45313,7 @@
         <v>47</v>
       </c>
       <c r="E139">
-        <v>5.1927431131776378E-2</v>
+        <v>0.50387027700135956</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -45330,7 +45330,7 @@
         <v>48</v>
       </c>
       <c r="E140">
-        <v>0.50037489173464123</v>
+        <v>0.54281525834277355</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -45347,7 +45347,7 @@
         <v>49</v>
       </c>
       <c r="E141">
-        <v>5.2396126076731338E-2</v>
+        <v>0.31524949981431516</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -45364,7 +45364,7 @@
         <v>50</v>
       </c>
       <c r="E142">
-        <v>5.2529601852641543E-2</v>
+        <v>5.0394105542607891E-2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -45381,7 +45381,7 @@
         <v>51</v>
       </c>
       <c r="E143">
-        <v>0.49628801287465374</v>
+        <v>0.53129983779852441</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -45398,7 +45398,7 @@
         <v>52</v>
       </c>
       <c r="E144">
-        <v>5.2394990741227741E-2</v>
+        <v>0.19983284030190226</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -45415,7 +45415,7 @@
         <v>53</v>
       </c>
       <c r="E145">
-        <v>0.57915831496451076</v>
+        <v>0.56409210217814354</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -45432,7 +45432,7 @@
         <v>54</v>
       </c>
       <c r="E146">
-        <v>0.55373714456375223</v>
+        <v>0.58109898825214745</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -45449,7 +45449,7 @@
         <v>55</v>
       </c>
       <c r="E147">
-        <v>0.48382353161156577</v>
+        <v>0.57612952016325436</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -45466,7 +45466,7 @@
         <v>56</v>
       </c>
       <c r="E148">
-        <v>0.54881552595948002</v>
+        <v>0.58669966475098856</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -45483,7 +45483,7 @@
         <v>57</v>
       </c>
       <c r="E149">
-        <v>0.50319335651213126</v>
+        <v>0.5823677944262956</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -45500,7 +45500,7 @@
         <v>58</v>
       </c>
       <c r="E150">
-        <v>0.50079908937277551</v>
+        <v>0.57260783433307849</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -45517,7 +45517,7 @@
         <v>34</v>
       </c>
       <c r="E151">
-        <v>5.8797322464440839E-2</v>
+        <v>5.6414383605186573E-2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -45534,7 +45534,7 @@
         <v>35</v>
       </c>
       <c r="E152">
-        <v>0.6360062976620724</v>
+        <v>0.64794716395583374</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -45551,7 +45551,7 @@
         <v>36</v>
       </c>
       <c r="E153">
-        <v>0.60961079635593907</v>
+        <v>0.63775010859749659</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -45568,7 +45568,7 @@
         <v>37</v>
       </c>
       <c r="E154">
-        <v>0.63814627904245191</v>
+        <v>0.41040603652786373</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -45585,7 +45585,7 @@
         <v>38</v>
       </c>
       <c r="E155">
-        <v>0.64449043883527257</v>
+        <v>0.41492887729559208</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -45602,7 +45602,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>0.45282927474333134</v>
+        <v>0.63839827380968428</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -45619,7 +45619,7 @@
         <v>40</v>
       </c>
       <c r="E157">
-        <v>0.61778695749802959</v>
+        <v>0.64718308867991792</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -45636,7 +45636,7 @@
         <v>41</v>
       </c>
       <c r="E158">
-        <v>0.63738433076257328</v>
+        <v>0.28064151469195192</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -45653,7 +45653,7 @@
         <v>42</v>
       </c>
       <c r="E159">
-        <v>0.64308027096011133</v>
+        <v>0.50044620671118401</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -45670,7 +45670,7 @@
         <v>43</v>
       </c>
       <c r="E160">
-        <v>0.63551213587724364</v>
+        <v>0.43161332524881635</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -45687,7 +45687,7 @@
         <v>44</v>
       </c>
       <c r="E161">
-        <v>0.64843331595302156</v>
+        <v>0.5618070171543581</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -45704,7 +45704,7 @@
         <v>45</v>
       </c>
       <c r="E162">
-        <v>0.64960808503226697</v>
+        <v>0.37634491561538058</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -45721,7 +45721,7 @@
         <v>46</v>
       </c>
       <c r="E163">
-        <v>0.40888884451970625</v>
+        <v>0.49198466697611426</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -45738,7 +45738,7 @@
         <v>47</v>
       </c>
       <c r="E164">
-        <v>0.58547195192673118</v>
+        <v>0.63304282964146374</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -45755,7 +45755,7 @@
         <v>48</v>
       </c>
       <c r="E165">
-        <v>0.62712867475092127</v>
+        <v>0.42398129872236517</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -45772,7 +45772,7 @@
         <v>49</v>
       </c>
       <c r="E166">
-        <v>5.8452217995438184E-2</v>
+        <v>0.64792665976582642</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -45789,7 +45789,7 @@
         <v>50</v>
       </c>
       <c r="E167">
-        <v>5.869885476670051E-2</v>
+        <v>0.52129662998661519</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -45806,7 +45806,7 @@
         <v>51</v>
       </c>
       <c r="E168">
-        <v>0.62504840534485639</v>
+        <v>0.64084745139121524</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -45823,7 +45823,7 @@
         <v>52</v>
       </c>
       <c r="E169">
-        <v>5.6883869742591152E-2</v>
+        <v>0.36362292172358185</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -45840,7 +45840,7 @@
         <v>53</v>
       </c>
       <c r="E170">
-        <v>0.64917263865384722</v>
+        <v>0.49704913689656172</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -45857,7 +45857,7 @@
         <v>54</v>
       </c>
       <c r="E171">
-        <v>0.64503558038561593</v>
+        <v>0.56331073654468244</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -45874,7 +45874,7 @@
         <v>55</v>
       </c>
       <c r="E172">
-        <v>0.62762535858515578</v>
+        <v>0.62620897501311867</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -45891,7 +45891,7 @@
         <v>56</v>
       </c>
       <c r="E173">
-        <v>0.64437582097306811</v>
+        <v>0.57735164289213448</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -45908,7 +45908,7 @@
         <v>57</v>
       </c>
       <c r="E174">
-        <v>0.63278143706791035</v>
+        <v>0.63052607983916564</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -45925,7 +45925,7 @@
         <v>58</v>
       </c>
       <c r="E175">
-        <v>0.63269126566164124</v>
+        <v>0.62834279409716443</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -45942,7 +45942,7 @@
         <v>34</v>
       </c>
       <c r="E176">
-        <v>5.8795544224983953E-2</v>
+        <v>0.54998648390170624</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -45959,7 +45959,7 @@
         <v>35</v>
       </c>
       <c r="E177">
-        <v>0.64749707761607744</v>
+        <v>0.61400726221270674</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -45976,7 +45976,7 @@
         <v>36</v>
       </c>
       <c r="E178">
-        <v>0.60945073051276444</v>
+        <v>0.64526957075688718</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -45993,7 +45993,7 @@
         <v>37</v>
       </c>
       <c r="E179">
-        <v>0.64837586546438375</v>
+        <v>0.35951433901503493</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -46010,7 +46010,7 @@
         <v>38</v>
       </c>
       <c r="E180">
-        <v>0.64871409608685437</v>
+        <v>0.36283873830004743</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -46027,7 +46027,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>0.38803658946732911</v>
+        <v>0.64867788149575889</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -46044,7 +46044,7 @@
         <v>40</v>
       </c>
       <c r="E182">
-        <v>0.64671093031059335</v>
+        <v>0.63816655860388649</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -46061,7 +46061,7 @@
         <v>41</v>
       </c>
       <c r="E183">
-        <v>1.5535482044086987E-2</v>
+        <v>0.63963958912893992</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -46078,7 +46078,7 @@
         <v>42</v>
       </c>
       <c r="E184">
-        <v>0.64954849446335206</v>
+        <v>0.49113466218660784</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -46095,7 +46095,7 @@
         <v>43</v>
       </c>
       <c r="E185">
-        <v>0.64899117525315853</v>
+        <v>0.36732855556526811</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -46112,7 +46112,7 @@
         <v>44</v>
       </c>
       <c r="E186">
-        <v>0.46037119342877869</v>
+        <v>0.54472210679384281</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -46129,7 +46129,7 @@
         <v>45</v>
       </c>
       <c r="E187">
-        <v>0.64950156423292149</v>
+        <v>0.36546335328761892</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -46146,7 +46146,7 @@
         <v>46</v>
       </c>
       <c r="E188">
-        <v>0.64240945037576724</v>
+        <v>0.52266875627609211</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -46163,7 +46163,7 @@
         <v>47</v>
       </c>
       <c r="E189">
-        <v>0.64659322632096883</v>
+        <v>0.63133935914152639</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -46180,7 +46180,7 @@
         <v>48</v>
       </c>
       <c r="E190">
-        <v>0.64751958665104503</v>
+        <v>0.35741241903533066</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -46197,7 +46197,7 @@
         <v>49</v>
       </c>
       <c r="E191">
-        <v>5.7807696762259393E-2</v>
+        <v>0.4736890417614969</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -46214,7 +46214,7 @@
         <v>50</v>
       </c>
       <c r="E192">
-        <v>5.8549944980447993E-2</v>
+        <v>0.48646293537366642</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -46231,7 +46231,7 @@
         <v>51</v>
       </c>
       <c r="E193">
-        <v>0.64702110063054941</v>
+        <v>0.62037972817457832</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -46248,7 +46248,7 @@
         <v>52</v>
       </c>
       <c r="E194">
-        <v>0.50926029142772344</v>
+        <v>0.40564890784933466</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -46265,7 +46265,7 @@
         <v>53</v>
       </c>
       <c r="E195">
-        <v>0.64885656272044812</v>
+        <v>0.48298007339399179</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -46282,7 +46282,7 @@
         <v>54</v>
       </c>
       <c r="E196">
-        <v>0.64958696979386599</v>
+        <v>0.55102373738755772</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -46299,7 +46299,7 @@
         <v>55</v>
       </c>
       <c r="E197">
-        <v>0.64358356960169238</v>
+        <v>0.60706053276573724</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -46316,7 +46316,7 @@
         <v>56</v>
       </c>
       <c r="E198">
-        <v>0.64956761813261277</v>
+        <v>0.55047516807722874</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -46333,7 +46333,7 @@
         <v>57</v>
       </c>
       <c r="E199">
-        <v>0.64595314350475641</v>
+        <v>0.6221687216581786</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -46350,7 +46350,7 @@
         <v>58</v>
       </c>
       <c r="E200">
-        <v>0.645558473340751</v>
+        <v>0.61814264689623633</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -46367,7 +46367,7 @@
         <v>34</v>
       </c>
       <c r="E201">
-        <v>0.77568012111514228</v>
+        <v>8.1705130404170073E-3</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -46384,7 +46384,7 @@
         <v>35</v>
       </c>
       <c r="E202">
-        <v>0.78916170213910719</v>
+        <v>0.78436908715097398</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -46401,7 +46401,7 @@
         <v>36</v>
       </c>
       <c r="E203">
-        <v>0.75784234554987662</v>
+        <v>0.71959477698142471</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -46418,7 +46418,7 @@
         <v>37</v>
       </c>
       <c r="E204">
-        <v>0.79745796681654457</v>
+        <v>0.76293310894248467</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -46435,7 +46435,7 @@
         <v>38</v>
       </c>
       <c r="E205">
-        <v>0.80400907466652627</v>
+        <v>0.80371890746590147</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -46452,7 +46452,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>0.80458780893811943</v>
+        <v>0.75552593846526894</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -46469,7 +46469,7 @@
         <v>40</v>
       </c>
       <c r="E207">
-        <v>0.77737136037741639</v>
+        <v>0.80268694784154782</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -46486,7 +46486,7 @@
         <v>41</v>
       </c>
       <c r="E208">
-        <v>0.77891955801961987</v>
+        <v>0.77896538384428016</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -46503,7 +46503,7 @@
         <v>42</v>
       </c>
       <c r="E209">
-        <v>0.80379196840692357</v>
+        <v>0.60986484343084368</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -46520,7 +46520,7 @@
         <v>43</v>
       </c>
       <c r="E210">
-        <v>0.79557405162075578</v>
+        <v>0.75547994365934446</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -46537,7 +46537,7 @@
         <v>44</v>
       </c>
       <c r="E211">
-        <v>0.80416124798693767</v>
+        <v>0.75089021613923368</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -46554,7 +46554,7 @@
         <v>45</v>
       </c>
       <c r="E212">
-        <v>0.80219893537901599</v>
+        <v>0.2874744879913288</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -46571,7 +46571,7 @@
         <v>46</v>
       </c>
       <c r="E213">
-        <v>0.66037349459196404</v>
+        <v>0.52897326630236641</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -46588,7 +46588,7 @@
         <v>47</v>
       </c>
       <c r="E214">
-        <v>0.76684266035760473</v>
+        <v>0.80103278988986804</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -46605,7 +46605,7 @@
         <v>48</v>
       </c>
       <c r="E215">
-        <v>0.78352327966282198</v>
+        <v>0.79090525167290093</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -46622,7 +46622,7 @@
         <v>49</v>
       </c>
       <c r="E216">
-        <v>0.75723813078130875</v>
+        <v>0.78438050523306713</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -46639,7 +46639,7 @@
         <v>50</v>
       </c>
       <c r="E217">
-        <v>7.3881836420787356E-2</v>
+        <v>6.964528426610192E-2</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -46656,7 +46656,7 @@
         <v>51</v>
       </c>
       <c r="E218">
-        <v>0.78109499147960226</v>
+        <v>0.79341897293947083</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -46673,7 +46673,7 @@
         <v>52</v>
       </c>
       <c r="E219">
-        <v>0.67080133581302426</v>
+        <v>0.45625858948156511</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -46690,7 +46690,7 @@
         <v>53</v>
       </c>
       <c r="E220">
-        <v>0.80393237445389221</v>
+        <v>0.57744849620539851</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -46707,7 +46707,7 @@
         <v>54</v>
       </c>
       <c r="E221">
-        <v>0.80400933941312314</v>
+        <v>0.73384526793347848</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -46724,7 +46724,7 @@
         <v>55</v>
       </c>
       <c r="E222">
-        <v>0.7812180113074646</v>
+        <v>0.80124546875531211</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -46741,7 +46741,7 @@
         <v>56</v>
       </c>
       <c r="E223">
-        <v>0.80372486597632353</v>
+        <v>0.72935905259562761</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -46758,7 +46758,7 @@
         <v>57</v>
       </c>
       <c r="E224">
-        <v>0.79081641573005557</v>
+        <v>0.79778582882677584</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -46775,7 +46775,7 @@
         <v>58</v>
       </c>
       <c r="E225">
-        <v>0.78871486319019091</v>
+        <v>0.79927905677071753</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -46792,7 +46792,7 @@
         <v>34</v>
       </c>
       <c r="E226">
-        <v>0.12491713594937826</v>
+        <v>0.12464880292331959</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -46809,7 +46809,7 @@
         <v>35</v>
       </c>
       <c r="E227">
-        <v>0.79828069911306287</v>
+        <v>0.11718120122489956</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -46826,7 +46826,7 @@
         <v>36</v>
       </c>
       <c r="E228">
-        <v>0.12286195014583516</v>
+        <v>0.79664003217427204</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -46843,7 +46843,7 @@
         <v>37</v>
       </c>
       <c r="E229">
-        <v>0.81918288698342867</v>
+        <v>0.7513398025369693</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -46860,7 +46860,7 @@
         <v>38</v>
       </c>
       <c r="E230">
-        <v>0.84180973104430756</v>
+        <v>0.84037152913411317</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -46877,7 +46877,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>0.84732926346363269</v>
+        <v>0.8288446407722414</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -46894,7 +46894,7 @@
         <v>40</v>
       </c>
       <c r="E232">
-        <v>0.76717414574659892</v>
+        <v>0.71838375905102014</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -46911,7 +46911,7 @@
         <v>41</v>
       </c>
       <c r="E233">
-        <v>0.7830595974814466</v>
+        <v>0.77670844033641184</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -46928,7 +46928,7 @@
         <v>42</v>
       </c>
       <c r="E234">
-        <v>0.83746221584730363</v>
+        <v>0.84965250305776197</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -46945,7 +46945,7 @@
         <v>43</v>
       </c>
       <c r="E235">
-        <v>0.81660568322742966</v>
+        <v>0.7568441424148622</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -46962,7 +46962,7 @@
         <v>44</v>
       </c>
       <c r="E236">
-        <v>0.83932127167993631</v>
+        <v>0.7107329680724348</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -46979,7 +46979,7 @@
         <v>45</v>
       </c>
       <c r="E237">
-        <v>0.84966167653132718</v>
+        <v>0.33010495219253155</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -46996,7 +46996,7 @@
         <v>46</v>
       </c>
       <c r="E238">
-        <v>0.41801865578069325</v>
+        <v>0.3419258087561417</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -47013,7 +47013,7 @@
         <v>47</v>
       </c>
       <c r="E239">
-        <v>0.74484644672696587</v>
+        <v>0.6822062680972365</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -47030,7 +47030,7 @@
         <v>48</v>
       </c>
       <c r="E240">
-        <v>0.79166285337537856</v>
+        <v>0.72291448798064584</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -47047,7 +47047,7 @@
         <v>49</v>
       </c>
       <c r="E241">
-        <v>0.79715911157564079</v>
+        <v>0.12048423865855816</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -47064,7 +47064,7 @@
         <v>50</v>
       </c>
       <c r="E242">
-        <v>0.12469680909565355</v>
+        <v>0.12089040800031291</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -47081,7 +47081,7 @@
         <v>51</v>
       </c>
       <c r="E243">
-        <v>0.78749938088912375</v>
+        <v>0.8053982721146199</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -47098,7 +47098,7 @@
         <v>52</v>
       </c>
       <c r="E244">
-        <v>0.12438366008129072</v>
+        <v>0.37092770098975653</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -47115,7 +47115,7 @@
         <v>53</v>
       </c>
       <c r="E245">
-        <v>0.84875858303744267</v>
+        <v>0.79245627827443854</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -47132,7 +47132,7 @@
         <v>54</v>
       </c>
       <c r="E246">
-        <v>0.83841362813850306</v>
+        <v>0.75535412073820729</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -47149,7 +47149,7 @@
         <v>55</v>
       </c>
       <c r="E247">
-        <v>0.78041482258380412</v>
+        <v>0.72194047213127033</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -47166,7 +47166,7 @@
         <v>56</v>
       </c>
       <c r="E248">
-        <v>0.8360720174101729</v>
+        <v>0.78116805497864394</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -47183,7 +47183,7 @@
         <v>57</v>
       </c>
       <c r="E249">
-        <v>0.80073331026325367</v>
+        <v>0.74251560374593817</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -47200,7 +47200,7 @@
         <v>58</v>
       </c>
       <c r="E250">
-        <v>0.7966092378614249</v>
+        <v>0.74611162125604569</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -47217,7 +47217,7 @@
         <v>34</v>
       </c>
       <c r="E251">
-        <v>0.83285478957711334</v>
+        <v>0.83279977189109333</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -47234,7 +47234,7 @@
         <v>35</v>
       </c>
       <c r="E252">
-        <v>0.82414843217736278</v>
+        <v>0.81719490121498772</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -47251,7 +47251,7 @@
         <v>36</v>
       </c>
       <c r="E253">
-        <v>0.82548162214431176</v>
+        <v>0.81290981576019761</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -47268,7 +47268,7 @@
         <v>37</v>
       </c>
       <c r="E254">
-        <v>0.82411660532884889</v>
+        <v>0.80138252466319793</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -47285,7 +47285,7 @@
         <v>38</v>
       </c>
       <c r="E255">
-        <v>0.82510386302743699</v>
+        <v>0.8003453047855924</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -47302,7 +47302,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>0.82595639392271902</v>
+        <v>0.80493934349781793</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -47319,7 +47319,7 @@
         <v>40</v>
       </c>
       <c r="E257">
-        <v>0.82497399823155604</v>
+        <v>0.81341295726157203</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -47336,7 +47336,7 @@
         <v>41</v>
       </c>
       <c r="E258">
-        <v>0.82705198690499659</v>
+        <v>3.6651691878398299E-3</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -47353,7 +47353,7 @@
         <v>42</v>
       </c>
       <c r="E259">
-        <v>0.82599200723141253</v>
+        <v>0.79834006146274905</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -47370,7 +47370,7 @@
         <v>43</v>
       </c>
       <c r="E260">
-        <v>0.82567361162837904</v>
+        <v>0.80532799929074628</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -47387,7 +47387,7 @@
         <v>44</v>
       </c>
       <c r="E261">
-        <v>0.82606294401042968</v>
+        <v>0.74406791723059773</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -47404,7 +47404,7 @@
         <v>45</v>
       </c>
       <c r="E262">
-        <v>0.7274556836981203</v>
+        <v>0.64048345972524789</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -47421,7 +47421,7 @@
         <v>46</v>
       </c>
       <c r="E263">
-        <v>0.76695303214811761</v>
+        <v>0.74177721470215019</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -47438,7 +47438,7 @@
         <v>47</v>
       </c>
       <c r="E264">
-        <v>0.82218427271481365</v>
+        <v>0.7881701388716128</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -47455,7 +47455,7 @@
         <v>48</v>
       </c>
       <c r="E265">
-        <v>0.82579586300941354</v>
+        <v>0.80431309137373341</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -47472,7 +47472,7 @@
         <v>49</v>
       </c>
       <c r="E266">
-        <v>0.82497872741876854</v>
+        <v>0.82469592575531259</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -47489,7 +47489,7 @@
         <v>50</v>
       </c>
       <c r="E267">
-        <v>0.83106625448035443</v>
+        <v>0.8147575547803535</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -47506,7 +47506,7 @@
         <v>51</v>
       </c>
       <c r="E268">
-        <v>0.82607713192877386</v>
+        <v>0.79915085176144085</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -47523,7 +47523,7 @@
         <v>52</v>
       </c>
       <c r="E269">
-        <v>0.82822564449997738</v>
+        <v>0.81910048494297594</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -47540,7 +47540,7 @@
         <v>53</v>
       </c>
       <c r="E270">
-        <v>0.82646068823874752</v>
+        <v>0.80689532193338676</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -47557,7 +47557,7 @@
         <v>54</v>
       </c>
       <c r="E271">
-        <v>0.74681197705143498</v>
+        <v>0.74681197705143509</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -47574,7 +47574,7 @@
         <v>55</v>
       </c>
       <c r="E272">
-        <v>0.82521893131048918</v>
+        <v>0.79962344709662914</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -47591,7 +47591,7 @@
         <v>56</v>
       </c>
       <c r="E273">
-        <v>0.82644410326172135</v>
+        <v>0.80819092363631928</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -47608,7 +47608,7 @@
         <v>57</v>
       </c>
       <c r="E274">
-        <v>0.82486958741942085</v>
+        <v>0.80952224473688728</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -47625,7 +47625,7 @@
         <v>58</v>
       </c>
       <c r="E275">
-        <v>0.82476100539045905</v>
+        <v>0.80960187850212129</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -47659,7 +47659,7 @@
         <v>35</v>
       </c>
       <c r="E277">
-        <v>0.82732442869178169</v>
+        <v>0.82711949764274595</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -47676,7 +47676,7 @@
         <v>36</v>
       </c>
       <c r="E278">
-        <v>0.82976061584561756</v>
+        <v>0.8292700422032997</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -47693,7 +47693,7 @@
         <v>37</v>
       </c>
       <c r="E279">
-        <v>0.82607343630638563</v>
+        <v>0.82555880178376939</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -47744,7 +47744,7 @@
         <v>40</v>
       </c>
       <c r="E282">
-        <v>0.83043278101018381</v>
+        <v>0.82906391169407223</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -47761,7 +47761,7 @@
         <v>41</v>
       </c>
       <c r="E283">
-        <v>0.83231932572856315</v>
+        <v>0.83147755438763815</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -47795,7 +47795,7 @@
         <v>43</v>
       </c>
       <c r="E285">
-        <v>0.83179525305959801</v>
+        <v>0.83117512474510502</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -47812,7 +47812,7 @@
         <v>44</v>
       </c>
       <c r="E286">
-        <v>0.82968160509480504</v>
+        <v>0.78953244055711136</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -47829,7 +47829,7 @@
         <v>45</v>
       </c>
       <c r="E287">
-        <v>0.7274556836981203</v>
+        <v>0.72745568369811986</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -47863,7 +47863,7 @@
         <v>47</v>
       </c>
       <c r="E289">
-        <v>0.82218427271481365</v>
+        <v>0.82218427271481387</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -47897,7 +47897,7 @@
         <v>49</v>
       </c>
       <c r="E291">
-        <v>0.82949847039059599</v>
+        <v>0.82883553663023846</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -47914,7 +47914,7 @@
         <v>50</v>
       </c>
       <c r="E292">
-        <v>0.83147477677191117</v>
+        <v>0.8223046553542156</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -47982,7 +47982,7 @@
         <v>54</v>
       </c>
       <c r="E296">
-        <v>0.74681197705143476</v>
+        <v>0.74681197705143509</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -47999,7 +47999,7 @@
         <v>55</v>
       </c>
       <c r="E297">
-        <v>0.8260415728478917</v>
+        <v>0.82596739092958871</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -48016,7 +48016,7 @@
         <v>56</v>
       </c>
       <c r="E298">
-        <v>0.83248506088163854</v>
+        <v>0.83162731195136286</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -48033,7 +48033,7 @@
         <v>57</v>
       </c>
       <c r="E299">
-        <v>0.83113149547003928</v>
+        <v>0.82981031059120236</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -48050,7 +48050,7 @@
         <v>58</v>
       </c>
       <c r="E300">
-        <v>0.82832248477568027</v>
+        <v>0.82831204956826721</v>
       </c>
     </row>
   </sheetData>
